--- a/AI_Recommender_Course_Plan.xlsx
+++ b/AI_Recommender_Course_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata-my.sharepoint.com/personal/mo_patel_thinkbiganalytics_com/Documents/AI_training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp186057\Documents\GitHub\Academy-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>https://www.codementor.io/jadianes/building-a-recommender-with-apache-spark-python-example-app-part1-du1083qbw</t>
-  </si>
-  <si>
     <t>Test/Evaluate Collaborative Filtering Model</t>
   </si>
   <si>
@@ -170,7 +167,64 @@
     <t>Post-Review Changes and Finalize</t>
   </si>
   <si>
-    <t>8/111</t>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Cynthia Li</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>Review Notebooks</t>
+  </si>
+  <si>
+    <t>Will stand up when GPUs are needed</t>
+  </si>
+  <si>
+    <t>Westa Domoneva</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>Build Deep &amp; Wide Model</t>
+  </si>
+  <si>
+    <t>Test/Evaluate Deep &amp; Wide Model</t>
+  </si>
+  <si>
+    <t>Deploy Deep &amp; Wide Model</t>
+  </si>
+  <si>
+    <t>Review and Refactor</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Review and Feedback</t>
+  </si>
+  <si>
+    <t>Mo Patel and Others</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Deep Learning foundation</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
 </sst>
 </file>
@@ -541,17 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -641,16 +695,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
+      <c r="E6" s="5">
+        <v>42958</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -660,180 +714,1037 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42958</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42958</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42958</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42958</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>42958</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42961</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42961</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42964</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>42961</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="5"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="5"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="5"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E265" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
